--- a/Plan de ventas irrestricto.xlsx
+++ b/Plan de ventas irrestricto.xlsx
@@ -736,10 +736,10 @@
         <v>896231</v>
       </c>
       <c r="J2" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>0</v>
+        <v>1065123.355263158</v>
       </c>
       <c r="L2" s="3" t="n">
         <v>16206</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="N2" s="3" t="n"/>
       <c r="O2" s="3" t="n">
-        <v>176206</v>
+        <v>1241329.355263158</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>504000</v>
@@ -770,11 +770,12 @@
         <v/>
       </c>
       <c r="V2" s="3" t="n">
-        <v>0</v>
+        <v>720000</v>
       </c>
       <c r="W2" s="10" t="n"/>
-      <c r="X2" s="3" t="n">
-        <v>0</v>
+      <c r="X2" s="3">
+        <f>V2+W2</f>
+        <v/>
       </c>
       <c r="Y2" s="3">
         <f>U2-X2</f>
@@ -785,7 +786,7 @@
       <c r="AB2" s="3" t="n"/>
       <c r="AC2" s="3" t="n"/>
       <c r="AD2" s="3" t="n">
-        <v>504000</v>
+        <v>1224000</v>
       </c>
       <c r="AE2" s="3">
         <f>T2+X2+AB2+AC2</f>
@@ -833,10 +834,10 @@
         <v>640000</v>
       </c>
       <c r="J3" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>0</v>
+        <v>234125.521381579</v>
       </c>
       <c r="L3" s="3" t="n">
         <v>46651</v>
@@ -846,7 +847,7 @@
       </c>
       <c r="N3" s="3" t="n"/>
       <c r="O3" s="3" t="n">
-        <v>155740.6161945485</v>
+        <v>389866.1375761275</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>178000</v>
@@ -855,7 +856,7 @@
         <v>22000</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>176000</v>
+        <v>178000</v>
       </c>
       <c r="S3" s="10" t="n"/>
       <c r="T3" s="3">
@@ -867,11 +868,12 @@
         <v/>
       </c>
       <c r="V3" s="3" t="n">
-        <v>0</v>
+        <v>198000</v>
       </c>
       <c r="W3" s="10" t="n"/>
-      <c r="X3" s="3" t="n">
-        <v>0</v>
+      <c r="X3" s="3">
+        <f>V3+W3</f>
+        <v/>
       </c>
       <c r="Y3" s="3">
         <f>U3-X3</f>
@@ -882,7 +884,7 @@
       <c r="AB3" s="3" t="n"/>
       <c r="AC3" s="3" t="n"/>
       <c r="AD3" s="3" t="n">
-        <v>176000</v>
+        <v>376000</v>
       </c>
       <c r="AE3" s="3">
         <f>T3+X3+AB3+AC3</f>
@@ -930,10 +932,10 @@
         <v>300000</v>
       </c>
       <c r="J4" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0</v>
+        <v>260279.6052631579</v>
       </c>
       <c r="L4" s="3" t="n">
         <v>62910</v>
@@ -943,7 +945,7 @@
       </c>
       <c r="N4" s="3" t="n"/>
       <c r="O4" s="3" t="n">
-        <v>162910</v>
+        <v>423189.6052631579</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>825000</v>
@@ -1027,10 +1029,10 @@
         <v>416000</v>
       </c>
       <c r="J5" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>0</v>
+        <v>273513.1578947369</v>
       </c>
       <c r="L5" s="3" t="n">
         <v>12377</v>
@@ -1040,7 +1042,7 @@
       </c>
       <c r="N5" s="3" t="n"/>
       <c r="O5" s="3" t="n">
-        <v>14777</v>
+        <v>288290.1578947369</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>0</v>
@@ -1061,11 +1063,12 @@
         <v/>
       </c>
       <c r="V5" s="3" t="n">
-        <v>0</v>
+        <v>288000</v>
       </c>
       <c r="W5" s="10" t="n"/>
-      <c r="X5" s="3" t="n">
-        <v>0</v>
+      <c r="X5" s="3">
+        <f>V5+W5</f>
+        <v/>
       </c>
       <c r="Y5" s="3">
         <f>U5-X5</f>
@@ -1076,9 +1079,12 @@
       <c r="AB5" s="3" t="n"/>
       <c r="AC5" s="3" t="n"/>
       <c r="AD5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="3" t="n"/>
+        <v>288000</v>
+      </c>
+      <c r="AE5" s="3">
+        <f>T5+X5+AB5+AC5</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
@@ -1519,10 +1525,10 @@
         <v>240000</v>
       </c>
       <c r="J10" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>0</v>
+        <v>132203.2993421053</v>
       </c>
       <c r="L10" s="3" t="n">
         <v>133585</v>
@@ -1532,7 +1538,7 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="3" t="n">
-        <v>150166.600001792</v>
+        <v>282369.8993438973</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>196716</v>
@@ -1541,7 +1547,7 @@
         <v>24000</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>192000</v>
+        <v>196716</v>
       </c>
       <c r="S10" s="10" t="n"/>
       <c r="T10" s="3">
@@ -1553,11 +1559,12 @@
         <v/>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="W10" s="10" t="n"/>
-      <c r="X10" s="3" t="n">
-        <v>0</v>
+      <c r="X10" s="3">
+        <f>V10+W10</f>
+        <v/>
       </c>
       <c r="Y10" s="3">
         <f>U10-X10</f>
@@ -1568,7 +1575,7 @@
       <c r="AB10" s="3" t="n"/>
       <c r="AC10" s="3" t="n"/>
       <c r="AD10" s="3" t="n">
-        <v>192000</v>
+        <v>268716</v>
       </c>
       <c r="AE10" s="3">
         <f>T10+X10+AB10+AC10</f>
@@ -1616,10 +1623,10 @@
         <v>217713</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>0</v>
+        <v>165685.8552631579</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>38410</v>
@@ -1629,7 +1636,7 @@
       </c>
       <c r="N11" s="3" t="n"/>
       <c r="O11" s="3" t="n">
-        <v>38410</v>
+        <v>204095.8552631579</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>48000</v>
@@ -1650,11 +1657,12 @@
         <v/>
       </c>
       <c r="V11" s="3" t="n">
-        <v>0</v>
+        <v>144000</v>
       </c>
       <c r="W11" s="10" t="n"/>
-      <c r="X11" s="3" t="n">
-        <v>0</v>
+      <c r="X11" s="3">
+        <f>V11+W11</f>
+        <v/>
       </c>
       <c r="Y11" s="3">
         <f>U11-X11</f>
@@ -1665,7 +1673,7 @@
       <c r="AB11" s="3" t="n"/>
       <c r="AC11" s="3" t="n"/>
       <c r="AD11" s="3" t="n">
-        <v>48000</v>
+        <v>192000</v>
       </c>
       <c r="AE11" s="3">
         <f>T11+X11+AB11+AC11</f>
@@ -1813,10 +1821,10 @@
         <v>240000</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>0</v>
+        <v>157796.052631579</v>
       </c>
       <c r="L13" s="3" t="n">
         <v>39797</v>
@@ -1826,7 +1834,7 @@
       </c>
       <c r="N13" s="3" t="n"/>
       <c r="O13" s="3" t="n">
-        <v>199797</v>
+        <v>357593.052631579</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>456000</v>
@@ -1910,10 +1918,10 @@
         <v>275965</v>
       </c>
       <c r="J14" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>0</v>
+        <v>155166.1184210526</v>
       </c>
       <c r="L14" s="3" t="n">
         <v>42379</v>
@@ -1923,7 +1931,7 @@
       </c>
       <c r="N14" s="3" t="n"/>
       <c r="O14" s="3" t="n">
-        <v>129339.8</v>
+        <v>284505.9184210526</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>191900</v>
@@ -1932,7 +1940,7 @@
         <v>24000</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>168000</v>
+        <v>191900</v>
       </c>
       <c r="S14" s="10" t="n"/>
       <c r="T14" s="3">
@@ -1944,11 +1952,12 @@
         <v/>
       </c>
       <c r="V14" s="3" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="W14" s="10" t="n"/>
-      <c r="X14" s="3" t="n">
-        <v>0</v>
+      <c r="X14" s="3">
+        <f>V14+W14</f>
+        <v/>
       </c>
       <c r="Y14" s="3">
         <f>U14-X14</f>
@@ -1959,7 +1968,7 @@
       <c r="AB14" s="3" t="n"/>
       <c r="AC14" s="3" t="n"/>
       <c r="AD14" s="3" t="n">
-        <v>168000</v>
+        <v>263900</v>
       </c>
       <c r="AE14" s="3">
         <f>T14+X14+AB14+AC14</f>
@@ -2007,10 +2016,10 @@
         <v>240000</v>
       </c>
       <c r="J15" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>0</v>
+        <v>122471.9654605263</v>
       </c>
       <c r="L15" s="3" t="n">
         <v>121481</v>
@@ -2020,7 +2029,7 @@
       </c>
       <c r="N15" s="3" t="n"/>
       <c r="O15" s="3" t="n">
-        <v>130149.7396456557</v>
+        <v>252621.705106182</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>115000</v>
@@ -2041,11 +2050,12 @@
         <v/>
       </c>
       <c r="V15" s="3" t="n">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="W15" s="10" t="n"/>
-      <c r="X15" s="3" t="n">
-        <v>0</v>
+      <c r="X15" s="3">
+        <f>V15+W15</f>
+        <v/>
       </c>
       <c r="Y15" s="3">
         <f>U15-X15</f>
@@ -2056,7 +2066,7 @@
       <c r="AB15" s="3" t="n"/>
       <c r="AC15" s="3" t="n"/>
       <c r="AD15" s="3" t="n">
-        <v>115000</v>
+        <v>235000</v>
       </c>
       <c r="AE15" s="3">
         <f>T15+X15+AB15+AC15</f>
@@ -2104,10 +2114,10 @@
         <v>216000</v>
       </c>
       <c r="J16" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>0</v>
+        <v>115650.0370065789</v>
       </c>
       <c r="L16" s="3" t="n">
         <v>23405</v>
@@ -2117,7 +2127,7 @@
       </c>
       <c r="N16" s="3" t="n"/>
       <c r="O16" s="3" t="n">
-        <v>23405</v>
+        <v>139055.0370065789</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>24000</v>
@@ -2138,11 +2148,12 @@
         <v/>
       </c>
       <c r="V16" s="3" t="n">
-        <v>0</v>
+        <v>96000</v>
       </c>
       <c r="W16" s="10" t="n"/>
-      <c r="X16" s="3" t="n">
-        <v>0</v>
+      <c r="X16" s="3">
+        <f>V16+W16</f>
+        <v/>
       </c>
       <c r="Y16" s="3">
         <f>U16-X16</f>
@@ -2153,7 +2164,7 @@
       <c r="AB16" s="3" t="n"/>
       <c r="AC16" s="3" t="n"/>
       <c r="AD16" s="3" t="n">
-        <v>24000</v>
+        <v>120000</v>
       </c>
       <c r="AE16" s="3">
         <f>T16+X16+AB16+AC16</f>
@@ -2201,10 +2212,10 @@
         <v>192000</v>
       </c>
       <c r="J17" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>0</v>
+        <v>105474.1455592105</v>
       </c>
       <c r="L17" s="3" t="n">
         <v>70015</v>
@@ -2214,7 +2225,7 @@
       </c>
       <c r="N17" s="3" t="n"/>
       <c r="O17" s="3" t="n">
-        <v>118226.902599296</v>
+        <v>223701.0481585065</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>137000</v>
@@ -2223,7 +2234,7 @@
         <v>24000</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>120000</v>
+        <v>137000</v>
       </c>
       <c r="S17" s="10" t="n"/>
       <c r="T17" s="3">
@@ -2235,11 +2246,12 @@
         <v/>
       </c>
       <c r="V17" s="3" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="W17" s="10" t="n"/>
-      <c r="X17" s="3" t="n">
-        <v>0</v>
+      <c r="X17" s="3">
+        <f>V17+W17</f>
+        <v/>
       </c>
       <c r="Y17" s="3">
         <f>U17-X17</f>
@@ -2250,7 +2262,7 @@
       <c r="AB17" s="3" t="n"/>
       <c r="AC17" s="3" t="n"/>
       <c r="AD17" s="3" t="n">
-        <v>120000</v>
+        <v>209000</v>
       </c>
       <c r="AE17" s="3">
         <f>T17+X17+AB17+AC17</f>
@@ -2298,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>0</v>
+        <v>64506.31743421053</v>
       </c>
       <c r="L18" s="3" t="n">
         <v>10095</v>
@@ -2311,7 +2323,7 @@
       </c>
       <c r="N18" s="3" t="n"/>
       <c r="O18" s="3" t="n">
-        <v>64449.10143537816</v>
+        <v>128955.4188695887</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>264000</v>
@@ -2395,10 +2407,10 @@
         <v>144000</v>
       </c>
       <c r="J19" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>0</v>
+        <v>94024.96628289475</v>
       </c>
       <c r="L19" s="3" t="n">
         <v>97675</v>
@@ -2408,7 +2420,7 @@
       </c>
       <c r="N19" s="3" t="n"/>
       <c r="O19" s="3" t="n">
-        <v>123042.2629917623</v>
+        <v>217067.229274657</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>165000</v>
@@ -2417,7 +2429,7 @@
         <v>24000</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>144000</v>
+        <v>165000</v>
       </c>
       <c r="S19" s="10" t="n"/>
       <c r="T19" s="3">
@@ -2429,11 +2441,12 @@
         <v/>
       </c>
       <c r="V19" s="3" t="n">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="W19" s="10" t="n"/>
-      <c r="X19" s="3" t="n">
-        <v>0</v>
+      <c r="X19" s="3">
+        <f>V19+W19</f>
+        <v/>
       </c>
       <c r="Y19" s="3">
         <f>U19-X19</f>
@@ -2444,7 +2457,7 @@
       <c r="AB19" s="3" t="n"/>
       <c r="AC19" s="3" t="n"/>
       <c r="AD19" s="3" t="n">
-        <v>144000</v>
+        <v>213000</v>
       </c>
       <c r="AE19" s="3">
         <f>T19+X19+AB19+AC19</f>
@@ -2492,10 +2505,10 @@
         <v>170000</v>
       </c>
       <c r="J20" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>0</v>
+        <v>62671.05263157895</v>
       </c>
       <c r="L20" s="3" t="n">
         <v>14981</v>
@@ -2505,7 +2518,7 @@
       </c>
       <c r="N20" s="3" t="n"/>
       <c r="O20" s="3" t="n">
-        <v>21862.87270665962</v>
+        <v>84533.92533823858</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>33000</v>
@@ -2514,7 +2527,7 @@
         <v>22000</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="S20" s="10" t="n"/>
       <c r="T20" s="3">
@@ -2526,11 +2539,12 @@
         <v/>
       </c>
       <c r="V20" s="3" t="n">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="W20" s="10" t="n"/>
-      <c r="X20" s="3" t="n">
-        <v>0</v>
+      <c r="X20" s="3">
+        <f>V20+W20</f>
+        <v/>
       </c>
       <c r="Y20" s="3">
         <f>U20-X20</f>
@@ -2541,7 +2555,7 @@
       <c r="AB20" s="3" t="n"/>
       <c r="AC20" s="3" t="n"/>
       <c r="AD20" s="3" t="n">
-        <v>22000</v>
+        <v>77000</v>
       </c>
       <c r="AE20" s="3">
         <f>T20+X20+AB20+AC20</f>
@@ -2589,10 +2603,10 @@
         <v>120000</v>
       </c>
       <c r="J21" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>0</v>
+        <v>109057.4543585526</v>
       </c>
       <c r="L21" s="3" t="n">
         <v>41219</v>
@@ -2602,7 +2616,7 @@
       </c>
       <c r="N21" s="3" t="n"/>
       <c r="O21" s="3" t="n">
-        <v>88693.86141005676</v>
+        <v>197751.3157686094</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>120000</v>
@@ -2623,11 +2637,12 @@
         <v/>
       </c>
       <c r="V21" s="3" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="W21" s="10" t="n"/>
-      <c r="X21" s="3" t="n">
-        <v>0</v>
+      <c r="X21" s="3">
+        <f>V21+W21</f>
+        <v/>
       </c>
       <c r="Y21" s="3">
         <f>U21-X21</f>
@@ -2638,7 +2653,7 @@
       <c r="AB21" s="3" t="n"/>
       <c r="AC21" s="3" t="n"/>
       <c r="AD21" s="3" t="n">
-        <v>120000</v>
+        <v>192000</v>
       </c>
       <c r="AE21" s="3">
         <f>T21+X21+AB21+AC21</f>
@@ -2886,10 +2901,10 @@
         <v>120000</v>
       </c>
       <c r="J24" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>0</v>
+        <v>55705.66365131579</v>
       </c>
       <c r="L24" s="3" t="n">
         <v>43242</v>
@@ -2899,7 +2914,7 @@
       </c>
       <c r="N24" s="3" t="n"/>
       <c r="O24" s="3" t="n">
-        <v>60928.659784448</v>
+        <v>116634.3234357638</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>88000</v>
@@ -2920,11 +2935,12 @@
         <v/>
       </c>
       <c r="V24" s="3" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="W24" s="10" t="n"/>
-      <c r="X24" s="3" t="n">
-        <v>0</v>
+      <c r="X24" s="3">
+        <f>V24+W24</f>
+        <v/>
       </c>
       <c r="Y24" s="3">
         <f>U24-X24</f>
@@ -2935,7 +2951,7 @@
       <c r="AB24" s="3" t="n"/>
       <c r="AC24" s="3" t="n"/>
       <c r="AD24" s="3" t="n">
-        <v>88000</v>
+        <v>110000</v>
       </c>
       <c r="AE24" s="3">
         <f>T24+X24+AB24+AC24</f>
@@ -2983,10 +2999,10 @@
         <v>144000</v>
       </c>
       <c r="J25" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>0</v>
+        <v>76349.89884868421</v>
       </c>
       <c r="L25" s="3" t="n">
         <v>29857</v>
@@ -2996,7 +3012,7 @@
       </c>
       <c r="N25" s="3" t="n"/>
       <c r="O25" s="3" t="n">
-        <v>39060.64196752023</v>
+        <v>115410.5408162044</v>
       </c>
       <c r="P25" s="3" t="n">
         <v>31000</v>
@@ -3017,11 +3033,12 @@
         <v/>
       </c>
       <c r="V25" s="3" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="W25" s="10" t="n"/>
-      <c r="X25" s="3" t="n">
-        <v>0</v>
+      <c r="X25" s="3">
+        <f>V25+W25</f>
+        <v/>
       </c>
       <c r="Y25" s="3">
         <f>U25-X25</f>
@@ -3032,7 +3049,7 @@
       <c r="AB25" s="3" t="n"/>
       <c r="AC25" s="3" t="n"/>
       <c r="AD25" s="3" t="n">
-        <v>31000</v>
+        <v>103000</v>
       </c>
       <c r="AE25" s="3">
         <f>T25+X25+AB25+AC25</f>
@@ -3080,10 +3097,10 @@
         <v>144000</v>
       </c>
       <c r="J26" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>0</v>
+        <v>94677.63157894737</v>
       </c>
       <c r="L26" s="3" t="n">
         <v>31295</v>
@@ -3093,7 +3110,7 @@
       </c>
       <c r="N26" s="3" t="n"/>
       <c r="O26" s="3" t="n">
-        <v>37295</v>
+        <v>131972.6315789474</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>48000</v>
@@ -3114,11 +3131,12 @@
         <v/>
       </c>
       <c r="V26" s="3" t="n">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="W26" s="10" t="n"/>
-      <c r="X26" s="3" t="n">
-        <v>0</v>
+      <c r="X26" s="3">
+        <f>V26+W26</f>
+        <v/>
       </c>
       <c r="Y26" s="3">
         <f>U26-X26</f>
@@ -3129,7 +3147,7 @@
       <c r="AB26" s="3" t="n"/>
       <c r="AC26" s="3" t="n"/>
       <c r="AD26" s="3" t="n">
-        <v>48000</v>
+        <v>120000</v>
       </c>
       <c r="AE26" s="3">
         <f>T26+X26+AB26+AC26</f>
@@ -3277,10 +3295,10 @@
         <v>120000</v>
       </c>
       <c r="J28" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>0</v>
+        <v>63905.41036184211</v>
       </c>
       <c r="L28" s="3" t="n">
         <v>56971</v>
@@ -3290,7 +3308,7 @@
       </c>
       <c r="N28" s="3" t="n"/>
       <c r="O28" s="3" t="n">
-        <v>86106.147803104</v>
+        <v>150011.5581649461</v>
       </c>
       <c r="P28" s="3" t="n">
         <v>120000</v>
@@ -3311,11 +3329,12 @@
         <v/>
       </c>
       <c r="V28" s="3" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="W28" s="10" t="n"/>
-      <c r="X28" s="3" t="n">
-        <v>0</v>
+      <c r="X28" s="3">
+        <f>V28+W28</f>
+        <v/>
       </c>
       <c r="Y28" s="3">
         <f>U28-X28</f>
@@ -3326,7 +3345,7 @@
       <c r="AB28" s="3" t="n"/>
       <c r="AC28" s="3" t="n"/>
       <c r="AD28" s="3" t="n">
-        <v>120000</v>
+        <v>144000</v>
       </c>
       <c r="AE28" s="3">
         <f>T28+X28+AB28+AC28</f>
@@ -3474,10 +3493,10 @@
         <v>110000</v>
       </c>
       <c r="J30" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>0</v>
+        <v>41041.34950657895</v>
       </c>
       <c r="L30" s="3" t="n">
         <v>36405</v>
@@ -3487,7 +3506,7 @@
       </c>
       <c r="N30" s="3" t="n"/>
       <c r="O30" s="3" t="n">
-        <v>53047.3917140729</v>
+        <v>94088.74122065185</v>
       </c>
       <c r="P30" s="3" t="n">
         <v>66000</v>
@@ -3508,11 +3527,12 @@
         <v/>
       </c>
       <c r="V30" s="3" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="W30" s="10" t="n"/>
-      <c r="X30" s="3" t="n">
-        <v>0</v>
+      <c r="X30" s="3">
+        <f>V30+W30</f>
+        <v/>
       </c>
       <c r="Y30" s="3">
         <f>U30-X30</f>
@@ -3523,7 +3543,7 @@
       <c r="AB30" s="3" t="n"/>
       <c r="AC30" s="3" t="n"/>
       <c r="AD30" s="3" t="n">
-        <v>66000</v>
+        <v>88000</v>
       </c>
       <c r="AE30" s="3">
         <f>T30+X30+AB30+AC30</f>
@@ -3670,10 +3690,10 @@
         <v>120000</v>
       </c>
       <c r="J32" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>0</v>
+        <v>55551.99671052632</v>
       </c>
       <c r="L32" s="3" t="n">
         <v>74541</v>
@@ -3683,7 +3703,7 @@
       </c>
       <c r="N32" s="3" t="n"/>
       <c r="O32" s="3" t="n">
-        <v>74541</v>
+        <v>130092.9967105263</v>
       </c>
       <c r="P32" s="3" t="n">
         <v>61400</v>
@@ -3704,11 +3724,12 @@
         <v/>
       </c>
       <c r="V32" s="3" t="n">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="W32" s="10" t="n"/>
-      <c r="X32" s="3" t="n">
-        <v>0</v>
+      <c r="X32" s="3">
+        <f>V32+W32</f>
+        <v/>
       </c>
       <c r="Y32" s="3">
         <f>U32-X32</f>
@@ -3719,7 +3740,7 @@
       <c r="AB32" s="3" t="n"/>
       <c r="AC32" s="3" t="n"/>
       <c r="AD32" s="3" t="n">
-        <v>61400</v>
+        <v>109400</v>
       </c>
       <c r="AE32" s="3">
         <f>T32+X32+AB32+AC32</f>
@@ -3767,10 +3788,10 @@
         <v>110000</v>
       </c>
       <c r="J33" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>0</v>
+        <v>37956.58059210527</v>
       </c>
       <c r="L33" s="3" t="n">
         <v>36408</v>
@@ -3780,7 +3801,7 @@
       </c>
       <c r="N33" s="3" t="n"/>
       <c r="O33" s="3" t="n">
-        <v>36408</v>
+        <v>74364.58059210527</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>33000</v>
@@ -3801,11 +3822,12 @@
         <v/>
       </c>
       <c r="V33" s="3" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="W33" s="10" t="n"/>
-      <c r="X33" s="3" t="n">
-        <v>0</v>
+      <c r="X33" s="3">
+        <f>V33+W33</f>
+        <v/>
       </c>
       <c r="Y33" s="3">
         <f>U33-X33</f>
@@ -3816,7 +3838,7 @@
       <c r="AB33" s="3" t="n"/>
       <c r="AC33" s="3" t="n"/>
       <c r="AD33" s="3" t="n">
-        <v>33000</v>
+        <v>55000</v>
       </c>
       <c r="AE33" s="3">
         <f>T33+X33+AB33+AC33</f>
@@ -3864,10 +3886,10 @@
         <v>96000</v>
       </c>
       <c r="J34" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>0</v>
+        <v>63118.42105263158</v>
       </c>
       <c r="L34" s="11" t="n">
         <v>0</v>
@@ -3877,7 +3899,7 @@
       </c>
       <c r="N34" s="3" t="n"/>
       <c r="O34" s="3" t="n">
-        <v>0</v>
+        <v>63118.42105263158</v>
       </c>
       <c r="P34" s="3" t="n">
         <v>0</v>
@@ -3898,11 +3920,12 @@
         <v/>
       </c>
       <c r="V34" s="3" t="n">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="W34" s="10" t="n"/>
-      <c r="X34" s="3" t="n">
-        <v>0</v>
+      <c r="X34" s="3">
+        <f>V34+W34</f>
+        <v/>
       </c>
       <c r="Y34" s="3">
         <f>U34-X34</f>
@@ -3912,7 +3935,9 @@
       <c r="AA34" s="10" t="n"/>
       <c r="AB34" s="3" t="n"/>
       <c r="AC34" s="3" t="n"/>
-      <c r="AD34" s="3" t="n"/>
+      <c r="AD34" s="3" t="n">
+        <v>48000</v>
+      </c>
       <c r="AE34" s="3">
         <f>T34+X34+AB34+AC34</f>
         <v/>
@@ -4159,10 +4184,10 @@
         <v>96000</v>
       </c>
       <c r="J37" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>0</v>
+        <v>37480.26315789474</v>
       </c>
       <c r="L37" s="3" t="n">
         <v>86916</v>
@@ -4172,7 +4197,7 @@
       </c>
       <c r="N37" s="3" t="n"/>
       <c r="O37" s="3" t="n">
-        <v>103199.0425442813</v>
+        <v>140679.305702176</v>
       </c>
       <c r="P37" s="3" t="n">
         <v>118000</v>
@@ -4181,7 +4206,7 @@
         <v>24000</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>96000</v>
+        <v>118000</v>
       </c>
       <c r="S37" s="10" t="n"/>
       <c r="T37" s="3">
@@ -4208,7 +4233,7 @@
       <c r="AB37" s="3" t="n"/>
       <c r="AC37" s="3" t="n"/>
       <c r="AD37" s="3" t="n">
-        <v>96000</v>
+        <v>118000</v>
       </c>
       <c r="AE37" s="3">
         <f>T37+X37+AB37+AC37</f>
@@ -4256,10 +4281,10 @@
         <v>6160</v>
       </c>
       <c r="J38" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>0</v>
+        <v>47338.81578947369</v>
       </c>
       <c r="L38" s="11" t="n">
         <v>0</v>
@@ -4269,7 +4294,7 @@
       </c>
       <c r="N38" s="3" t="n"/>
       <c r="O38" s="3" t="n">
-        <v>0</v>
+        <v>47338.81578947369</v>
       </c>
       <c r="P38" s="3" t="n">
         <v>22000</v>
@@ -4278,7 +4303,7 @@
         <v>24000</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="S38" s="10" t="n"/>
       <c r="T38" s="3">
@@ -4300,11 +4325,18 @@
         <f>U38-X38</f>
         <v/>
       </c>
-      <c r="Z38" s="3" t="n"/>
+      <c r="Z38" s="3" t="n">
+        <v>24000</v>
+      </c>
       <c r="AA38" s="10" t="n"/>
-      <c r="AB38" s="3" t="n"/>
+      <c r="AB38" s="3">
+        <f>Z38+AA38</f>
+        <v/>
+      </c>
       <c r="AC38" s="3" t="n"/>
-      <c r="AD38" s="3" t="n"/>
+      <c r="AD38" s="3" t="n">
+        <v>46000</v>
+      </c>
       <c r="AE38" s="3">
         <f>T38+X38+AB38+AC38</f>
         <v/>
@@ -4351,10 +4383,10 @@
         <v>72000</v>
       </c>
       <c r="J39" s="9" t="n">
-        <v>0.7944078947368421</v>
+        <v>0.7532894736842105</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>57197.36842105263</v>
+        <v>54236.84210526316</v>
       </c>
       <c r="L39" s="11" t="n">
         <v>0</v>
@@ -4364,7 +4396,7 @@
       </c>
       <c r="N39" s="3" t="n"/>
       <c r="O39" s="3" t="n">
-        <v>57197.36842105263</v>
+        <v>54236.84210526316</v>
       </c>
       <c r="P39" s="3" t="n">
         <v>72000</v>
@@ -4448,10 +4480,10 @@
         <v>72000</v>
       </c>
       <c r="J40" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>0</v>
+        <v>47338.81578947369</v>
       </c>
       <c r="L40" s="3" t="n">
         <v>35160</v>
@@ -4461,7 +4493,7 @@
       </c>
       <c r="N40" s="3" t="n"/>
       <c r="O40" s="3" t="n">
-        <v>69504</v>
+        <v>116842.8157894737</v>
       </c>
       <c r="P40" s="3" t="n">
         <v>0</v>
@@ -4482,7 +4514,7 @@
         <v/>
       </c>
       <c r="V40" s="3" t="n">
-        <v>48000</v>
+        <v>96000</v>
       </c>
       <c r="W40" s="10" t="n"/>
       <c r="X40" s="3">
@@ -4498,7 +4530,7 @@
       <c r="AB40" s="3" t="n"/>
       <c r="AC40" s="3" t="n"/>
       <c r="AD40" s="3" t="n">
-        <v>48000</v>
+        <v>96000</v>
       </c>
       <c r="AE40" s="3">
         <f>T40+X40+AB40+AC40</f>
@@ -4546,10 +4578,10 @@
         <v>72000</v>
       </c>
       <c r="J41" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>0</v>
+        <v>36142.42598684211</v>
       </c>
       <c r="L41" s="11" t="n">
         <v>0</v>
@@ -4559,7 +4591,7 @@
       </c>
       <c r="N41" s="3" t="n"/>
       <c r="O41" s="3" t="n">
-        <v>2056.288902149722</v>
+        <v>38198.71488899183</v>
       </c>
       <c r="P41" s="3" t="n">
         <v>0</v>
@@ -4580,11 +4612,12 @@
         <v/>
       </c>
       <c r="V41" s="3" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="W41" s="10" t="n"/>
-      <c r="X41" s="3" t="n">
-        <v>0</v>
+      <c r="X41" s="3">
+        <f>V41+W41</f>
+        <v/>
       </c>
       <c r="Y41" s="3">
         <f>U41-X41</f>
@@ -4595,9 +4628,12 @@
       <c r="AB41" s="3" t="n"/>
       <c r="AC41" s="3" t="n"/>
       <c r="AD41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="3" t="n"/>
+        <v>24000</v>
+      </c>
+      <c r="AE41" s="3">
+        <f>T41+X41+AB41+AC41</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
@@ -4640,10 +4676,10 @@
         <v>48000</v>
       </c>
       <c r="J42" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>0</v>
+        <v>33975.33799342105</v>
       </c>
       <c r="L42" s="3" t="n">
         <v>66494</v>
@@ -4653,7 +4689,7 @@
       </c>
       <c r="N42" s="3" t="n"/>
       <c r="O42" s="3" t="n">
-        <v>83602.93629296</v>
+        <v>117578.2742863811</v>
       </c>
       <c r="P42" s="3" t="n">
         <v>114000</v>
@@ -4662,7 +4698,7 @@
         <v>24000</v>
       </c>
       <c r="R42" s="3" t="n">
-        <v>96000</v>
+        <v>114000</v>
       </c>
       <c r="S42" s="10" t="n"/>
       <c r="T42" s="3">
@@ -4689,7 +4725,7 @@
       <c r="AB42" s="3" t="n"/>
       <c r="AC42" s="3" t="n"/>
       <c r="AD42" s="3" t="n">
-        <v>96000</v>
+        <v>114000</v>
       </c>
       <c r="AE42" s="3">
         <f>T42+X42+AB42+AC42</f>
@@ -4834,10 +4870,10 @@
         <v>48000</v>
       </c>
       <c r="J44" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>0</v>
+        <v>32625.00740131579</v>
       </c>
       <c r="L44" s="3" t="n">
         <v>79083</v>
@@ -4847,7 +4883,7 @@
       </c>
       <c r="N44" s="3" t="n"/>
       <c r="O44" s="3" t="n">
-        <v>81587.8</v>
+        <v>114212.8074013158</v>
       </c>
       <c r="P44" s="3" t="n">
         <v>110000</v>
@@ -4856,7 +4892,7 @@
         <v>24000</v>
       </c>
       <c r="R44" s="3" t="n">
-        <v>96000</v>
+        <v>110000</v>
       </c>
       <c r="S44" s="10" t="n"/>
       <c r="T44" s="3">
@@ -4883,7 +4919,7 @@
       <c r="AB44" s="3" t="n"/>
       <c r="AC44" s="3" t="n"/>
       <c r="AD44" s="3" t="n">
-        <v>96000</v>
+        <v>110000</v>
       </c>
       <c r="AE44" s="3">
         <f>T44+X44+AB44+AC44</f>
@@ -4931,10 +4967,10 @@
         <v>72000</v>
       </c>
       <c r="J45" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>0</v>
+        <v>31863.94983552632</v>
       </c>
       <c r="L45" s="3" t="n">
         <v>22789</v>
@@ -4944,7 +4980,7 @@
       </c>
       <c r="N45" s="3" t="n"/>
       <c r="O45" s="3" t="n">
-        <v>22789</v>
+        <v>54652.94983552632</v>
       </c>
       <c r="P45" s="3" t="n">
         <v>12000</v>
@@ -4965,11 +5001,12 @@
         <v/>
       </c>
       <c r="V45" s="3" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="W45" s="10" t="n"/>
-      <c r="X45" s="3" t="n">
-        <v>0</v>
+      <c r="X45" s="3">
+        <f>V45+W45</f>
+        <v/>
       </c>
       <c r="Y45" s="3">
         <f>U45-X45</f>
@@ -4980,7 +5017,7 @@
       <c r="AB45" s="3" t="n"/>
       <c r="AC45" s="3" t="n"/>
       <c r="AD45" s="3" t="n">
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="AE45" s="3">
         <f>T45+X45+AB45+AC45</f>
@@ -5128,10 +5165,10 @@
         <v>48000</v>
       </c>
       <c r="J47" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>0</v>
+        <v>28663.03125</v>
       </c>
       <c r="L47" s="3" t="n">
         <v>29994</v>
@@ -5141,7 +5178,7 @@
       </c>
       <c r="N47" s="3" t="n"/>
       <c r="O47" s="3" t="n">
-        <v>40696.4</v>
+        <v>69359.43124999999</v>
       </c>
       <c r="P47" s="3" t="n">
         <v>46000</v>
@@ -5150,7 +5187,7 @@
         <v>24000</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>24000</v>
+        <v>46000</v>
       </c>
       <c r="S47" s="10" t="n"/>
       <c r="T47" s="3">
@@ -5177,7 +5214,7 @@
       <c r="AB47" s="3" t="n"/>
       <c r="AC47" s="3" t="n"/>
       <c r="AD47" s="3" t="n">
-        <v>24000</v>
+        <v>46000</v>
       </c>
       <c r="AE47" s="3">
         <f>T47+X47+AB47+AC47</f>
@@ -5225,10 +5262,10 @@
         <v>48000</v>
       </c>
       <c r="J48" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>0</v>
+        <v>28586.50904605263</v>
       </c>
       <c r="L48" s="3" t="n">
         <v>40320</v>
@@ -5238,7 +5275,7 @@
       </c>
       <c r="N48" s="3" t="n"/>
       <c r="O48" s="3" t="n">
-        <v>42672.7454656</v>
+        <v>71259.25451165265</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>42600</v>
@@ -5259,11 +5296,12 @@
         <v/>
       </c>
       <c r="V48" s="3" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="W48" s="10" t="n"/>
-      <c r="X48" s="3" t="n">
-        <v>0</v>
+      <c r="X48" s="3">
+        <f>V48+W48</f>
+        <v/>
       </c>
       <c r="Y48" s="3">
         <f>U48-X48</f>
@@ -5274,7 +5312,7 @@
       <c r="AB48" s="3" t="n"/>
       <c r="AC48" s="3" t="n"/>
       <c r="AD48" s="3" t="n">
-        <v>42600</v>
+        <v>66600</v>
       </c>
       <c r="AE48" s="3">
         <f>T48+X48+AB48+AC48</f>
@@ -5322,10 +5360,10 @@
         <v>44000</v>
       </c>
       <c r="J49" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>0</v>
+        <v>19527.01809210526</v>
       </c>
       <c r="L49" s="3" t="n">
         <v>11145</v>
@@ -5335,7 +5373,7 @@
       </c>
       <c r="N49" s="3" t="n"/>
       <c r="O49" s="3" t="n">
-        <v>12359.8416</v>
+        <v>31886.85969210526</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>22000</v>
@@ -5419,10 +5457,10 @@
         <v>36000</v>
       </c>
       <c r="J50" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K50" s="3" t="n">
-        <v>0</v>
+        <v>18972.9490131579</v>
       </c>
       <c r="L50" s="3" t="n">
         <v>52774</v>
@@ -5432,7 +5470,7 @@
       </c>
       <c r="N50" s="3" t="n"/>
       <c r="O50" s="3" t="n">
-        <v>79850.53401893764</v>
+        <v>98823.48303209554</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>88000</v>
@@ -5616,10 +5654,10 @@
         <v>48000</v>
       </c>
       <c r="J52" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>0</v>
+        <v>25967.05509868421</v>
       </c>
       <c r="L52" s="3" t="n">
         <v>73320</v>
@@ -5629,7 +5667,7 @@
       </c>
       <c r="N52" s="3" t="n"/>
       <c r="O52" s="3" t="n">
-        <v>102658.66082928</v>
+        <v>128625.7159279642</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>108000</v>
@@ -5638,7 +5676,7 @@
         <v>24000</v>
       </c>
       <c r="R52" s="3" t="n">
-        <v>96000</v>
+        <v>108000</v>
       </c>
       <c r="S52" s="10" t="n"/>
       <c r="T52" s="3">
@@ -5665,7 +5703,7 @@
       <c r="AB52" s="3" t="n"/>
       <c r="AC52" s="3" t="n"/>
       <c r="AD52" s="3" t="n">
-        <v>96000</v>
+        <v>108000</v>
       </c>
       <c r="AE52" s="3">
         <f>T52+X52+AB52+AC52</f>
@@ -5713,10 +5751,10 @@
         <v>48000</v>
       </c>
       <c r="J53" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K53" s="3" t="n">
-        <v>0</v>
+        <v>25461.59210526316</v>
       </c>
       <c r="L53" s="3" t="n">
         <v>22932</v>
@@ -5726,7 +5764,7 @@
       </c>
       <c r="N53" s="3" t="n"/>
       <c r="O53" s="3" t="n">
-        <v>22932</v>
+        <v>48393.59210526316</v>
       </c>
       <c r="P53" s="3" t="n">
         <v>23000</v>
@@ -5735,7 +5773,7 @@
         <v>23714</v>
       </c>
       <c r="R53" s="3" t="n">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="S53" s="10" t="n"/>
       <c r="T53" s="3">
@@ -5747,11 +5785,12 @@
         <v/>
       </c>
       <c r="V53" s="3" t="n">
-        <v>0</v>
+        <v>23714</v>
       </c>
       <c r="W53" s="10" t="n"/>
-      <c r="X53" s="3" t="n">
-        <v>0</v>
+      <c r="X53" s="3">
+        <f>V53+W53</f>
+        <v/>
       </c>
       <c r="Y53" s="3">
         <f>U53-X53</f>
@@ -5762,9 +5801,12 @@
       <c r="AB53" s="3" t="n"/>
       <c r="AC53" s="3" t="n"/>
       <c r="AD53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="3" t="n"/>
+        <v>46714</v>
+      </c>
+      <c r="AE53" s="3">
+        <f>T53+X53+AB53+AC53</f>
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="8" t="inlineStr">
@@ -6005,10 +6047,10 @@
         <v>312000</v>
       </c>
       <c r="J56" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K56" s="3" t="n">
-        <v>0</v>
+        <v>24986.84210526316</v>
       </c>
       <c r="L56" s="3" t="n">
         <v>134883</v>
@@ -6018,7 +6060,7 @@
       </c>
       <c r="N56" s="3" t="n"/>
       <c r="O56" s="3" t="n">
-        <v>276045.3817676071</v>
+        <v>301032.2238728702</v>
       </c>
       <c r="P56" s="3" t="n">
         <v>72000</v>
@@ -6039,7 +6081,7 @@
         <v/>
       </c>
       <c r="V56" s="3" t="n">
-        <v>192000</v>
+        <v>216000</v>
       </c>
       <c r="W56" s="10" t="n"/>
       <c r="X56" s="3">
@@ -6055,7 +6097,7 @@
       <c r="AB56" s="3" t="n"/>
       <c r="AC56" s="3" t="n"/>
       <c r="AD56" s="3" t="n">
-        <v>264000</v>
+        <v>288000</v>
       </c>
       <c r="AE56" s="3">
         <f>T56+X56+AB56+AC56</f>
@@ -6103,10 +6145,10 @@
         <v>47070</v>
       </c>
       <c r="J57" s="9" t="n">
-        <v>0.7944078947368421</v>
+        <v>0.7532894736842105</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>38131.57894736842</v>
+        <v>36157.89473684211</v>
       </c>
       <c r="L57" s="3" t="n">
         <v>30584</v>
@@ -6116,7 +6158,7 @@
       </c>
       <c r="N57" s="3" t="n"/>
       <c r="O57" s="3" t="n">
-        <v>80715.57894736843</v>
+        <v>78741.89473684211</v>
       </c>
       <c r="P57" s="3" t="n">
         <v>48000</v>
@@ -6201,10 +6243,10 @@
         <v>44000</v>
       </c>
       <c r="J58" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K58" s="3" t="n">
-        <v>0</v>
+        <v>24211.72944078947</v>
       </c>
       <c r="L58" s="11" t="n">
         <v>0</v>
@@ -6214,7 +6256,7 @@
       </c>
       <c r="N58" s="3" t="n"/>
       <c r="O58" s="3" t="n">
-        <v>12000</v>
+        <v>36211.72944078947</v>
       </c>
       <c r="P58" s="3" t="n">
         <v>66000</v>
@@ -6298,10 +6340,10 @@
         <v>44000</v>
       </c>
       <c r="J59" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>0</v>
+        <v>16298.03453947369</v>
       </c>
       <c r="L59" s="3" t="n">
         <v>10871</v>
@@ -6311,7 +6353,7 @@
       </c>
       <c r="N59" s="3" t="n"/>
       <c r="O59" s="3" t="n">
-        <v>19700.11114612286</v>
+        <v>35998.14568559654</v>
       </c>
       <c r="P59" s="3" t="n">
         <v>22000</v>
@@ -6395,10 +6437,10 @@
         <v>48000</v>
       </c>
       <c r="J60" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K60" s="3" t="n">
-        <v>0</v>
+        <v>23755.71957236842</v>
       </c>
       <c r="L60" s="3" t="n">
         <v>54365</v>
@@ -6408,7 +6450,7 @@
       </c>
       <c r="N60" s="3" t="n"/>
       <c r="O60" s="3" t="n">
-        <v>54365</v>
+        <v>78120.71957236843</v>
       </c>
       <c r="P60" s="3" t="n">
         <v>52000</v>
@@ -6429,11 +6471,12 @@
         <v/>
       </c>
       <c r="V60" s="3" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="W60" s="10" t="n"/>
-      <c r="X60" s="3" t="n">
-        <v>0</v>
+      <c r="X60" s="3">
+        <f>V60+W60</f>
+        <v/>
       </c>
       <c r="Y60" s="3">
         <f>U60-X60</f>
@@ -6444,7 +6487,7 @@
       <c r="AB60" s="3" t="n"/>
       <c r="AC60" s="3" t="n"/>
       <c r="AD60" s="3" t="n">
-        <v>52000</v>
+        <v>76000</v>
       </c>
       <c r="AE60" s="3">
         <f>T60+X60+AB60+AC60</f>
@@ -6492,10 +6535,10 @@
         <v>0</v>
       </c>
       <c r="J61" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K61" s="3" t="n">
-        <v>0</v>
+        <v>15685.56743421053</v>
       </c>
       <c r="L61" s="3" t="n">
         <v>22687</v>
@@ -6505,7 +6548,7 @@
       </c>
       <c r="N61" s="3" t="n"/>
       <c r="O61" s="3" t="n">
-        <v>31127.8</v>
+        <v>46813.36743421053</v>
       </c>
       <c r="P61" s="3" t="n">
         <v>120000</v>
@@ -6589,10 +6632,10 @@
         <v>48000</v>
       </c>
       <c r="J62" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>0</v>
+        <v>22930.63322368421</v>
       </c>
       <c r="L62" s="3" t="n">
         <v>1168</v>
@@ -6602,7 +6645,7 @@
       </c>
       <c r="N62" s="3" t="n"/>
       <c r="O62" s="3" t="n">
-        <v>1168</v>
+        <v>24098.63322368421</v>
       </c>
       <c r="P62" s="3" t="n">
         <v>0</v>
@@ -6623,11 +6666,12 @@
         <v/>
       </c>
       <c r="V62" s="3" t="n">
-        <v>0</v>
+        <v>23667</v>
       </c>
       <c r="W62" s="10" t="n"/>
-      <c r="X62" s="3" t="n">
-        <v>0</v>
+      <c r="X62" s="3">
+        <f>V62+W62</f>
+        <v/>
       </c>
       <c r="Y62" s="3">
         <f>U62-X62</f>
@@ -6638,9 +6682,12 @@
       <c r="AB62" s="3" t="n"/>
       <c r="AC62" s="3" t="n"/>
       <c r="AD62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="3" t="n"/>
+        <v>23667</v>
+      </c>
+      <c r="AE62" s="3">
+        <f>T62+X62+AB62+AC62</f>
+        <v/>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
@@ -6683,10 +6730,10 @@
         <v>44000</v>
       </c>
       <c r="J63" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>0</v>
+        <v>15667.76315789474</v>
       </c>
       <c r="L63" s="11" t="n">
         <v>0</v>
@@ -6696,7 +6743,7 @@
       </c>
       <c r="N63" s="3" t="n"/>
       <c r="O63" s="3" t="n">
-        <v>0</v>
+        <v>15667.76315789474</v>
       </c>
       <c r="P63" s="3" t="n">
         <v>0</v>
@@ -6731,7 +6778,9 @@
       <c r="AA63" s="10" t="n"/>
       <c r="AB63" s="3" t="n"/>
       <c r="AC63" s="3" t="n"/>
-      <c r="AD63" s="3" t="n"/>
+      <c r="AD63" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AE63" s="3" t="n"/>
     </row>
     <row r="64">
@@ -6775,10 +6824,10 @@
         <v>60000</v>
       </c>
       <c r="J64" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K64" s="3" t="n">
-        <v>0</v>
+        <v>15632.51069078948</v>
       </c>
       <c r="L64" s="3" t="n">
         <v>24657</v>
@@ -6788,7 +6837,7 @@
       </c>
       <c r="N64" s="3" t="n"/>
       <c r="O64" s="3" t="n">
-        <v>34895.84011072</v>
+        <v>50528.35080150947</v>
       </c>
       <c r="P64" s="3" t="n">
         <v>24000</v>
@@ -6809,11 +6858,12 @@
         <v/>
       </c>
       <c r="V64" s="3" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="W64" s="10" t="n"/>
-      <c r="X64" s="3" t="n">
-        <v>0</v>
+      <c r="X64" s="3">
+        <f>V64+W64</f>
+        <v/>
       </c>
       <c r="Y64" s="3">
         <f>U64-X64</f>
@@ -6824,7 +6874,7 @@
       <c r="AB64" s="3" t="n"/>
       <c r="AC64" s="3" t="n"/>
       <c r="AD64" s="3" t="n">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="AE64" s="3">
         <f>T64+X64+AB64+AC64</f>
@@ -6872,10 +6922,10 @@
         <v>48000</v>
       </c>
       <c r="J65" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K65" s="3" t="n">
-        <v>0</v>
+        <v>22757.80756578947</v>
       </c>
       <c r="L65" s="3" t="n">
         <v>44326</v>
@@ -6885,7 +6935,7 @@
       </c>
       <c r="N65" s="3" t="n"/>
       <c r="O65" s="3" t="n">
-        <v>63384.84</v>
+        <v>86142.64756578946</v>
       </c>
       <c r="P65" s="3" t="n">
         <v>67000</v>
@@ -6894,7 +6944,7 @@
         <v>24000</v>
       </c>
       <c r="R65" s="3" t="n">
-        <v>48000</v>
+        <v>67000</v>
       </c>
       <c r="S65" s="10" t="n"/>
       <c r="T65" s="3">
@@ -6921,7 +6971,7 @@
       <c r="AB65" s="3" t="n"/>
       <c r="AC65" s="3" t="n"/>
       <c r="AD65" s="3" t="n">
-        <v>48000</v>
+        <v>67000</v>
       </c>
       <c r="AE65" s="3">
         <f>T65+X65+AB65+AC65</f>
@@ -6969,10 +7019,10 @@
         <v>44000</v>
       </c>
       <c r="J66" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K66" s="3" t="n">
-        <v>0</v>
+        <v>15008.2927631579</v>
       </c>
       <c r="L66" s="3" t="n">
         <v>22682</v>
@@ -6982,7 +7032,7 @@
       </c>
       <c r="N66" s="3" t="n"/>
       <c r="O66" s="3" t="n">
-        <v>22682</v>
+        <v>37690.29276315789</v>
       </c>
       <c r="P66" s="3" t="n">
         <v>22000</v>
@@ -7066,10 +7116,10 @@
         <v>44000</v>
       </c>
       <c r="J67" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K67" s="3" t="n">
-        <v>0</v>
+        <v>14911.4375</v>
       </c>
       <c r="L67" s="3" t="n">
         <v>28252</v>
@@ -7079,7 +7129,7 @@
       </c>
       <c r="N67" s="3" t="n"/>
       <c r="O67" s="3" t="n">
-        <v>28252</v>
+        <v>43163.4375</v>
       </c>
       <c r="P67" s="3" t="n">
         <v>22000</v>
@@ -7163,10 +7213,10 @@
         <v>48000</v>
       </c>
       <c r="J68" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K68" s="3" t="n">
-        <v>0</v>
+        <v>20787.49095394737</v>
       </c>
       <c r="L68" s="3" t="n">
         <v>23790</v>
@@ -7176,7 +7226,7 @@
       </c>
       <c r="N68" s="3" t="n"/>
       <c r="O68" s="3" t="n">
-        <v>23790</v>
+        <v>44577.49095394737</v>
       </c>
       <c r="P68" s="3" t="n">
         <v>17000</v>
@@ -7197,11 +7247,12 @@
         <v/>
       </c>
       <c r="V68" s="3" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="W68" s="10" t="n"/>
-      <c r="X68" s="3" t="n">
-        <v>0</v>
+      <c r="X68" s="3">
+        <f>V68+W68</f>
+        <v/>
       </c>
       <c r="Y68" s="3">
         <f>U68-X68</f>
@@ -7212,7 +7263,7 @@
       <c r="AB68" s="3" t="n"/>
       <c r="AC68" s="3" t="n"/>
       <c r="AD68" s="3" t="n">
-        <v>17000</v>
+        <v>41000</v>
       </c>
       <c r="AE68" s="3">
         <f>T68+X68+AB68+AC68</f>
@@ -7558,10 +7609,10 @@
         <v>22000</v>
       </c>
       <c r="J72" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K72" s="3" t="n">
-        <v>0</v>
+        <v>12648.51398026316</v>
       </c>
       <c r="L72" s="3" t="n">
         <v>33942</v>
@@ -7571,7 +7622,7 @@
       </c>
       <c r="N72" s="3" t="n"/>
       <c r="O72" s="3" t="n">
-        <v>41609.936</v>
+        <v>54258.44998026316</v>
       </c>
       <c r="P72" s="3" t="n">
         <v>48000</v>
@@ -7755,10 +7806,10 @@
         <v>72000</v>
       </c>
       <c r="J74" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K74" s="3" t="n">
-        <v>0</v>
+        <v>20296.51726973684</v>
       </c>
       <c r="L74" s="3" t="n">
         <v>94090</v>
@@ -7768,7 +7819,7 @@
       </c>
       <c r="N74" s="3" t="n"/>
       <c r="O74" s="3" t="n">
-        <v>94090</v>
+        <v>114386.5172697368</v>
       </c>
       <c r="P74" s="3" t="n">
         <v>70000</v>
@@ -7853,10 +7904,10 @@
         <v>24000</v>
       </c>
       <c r="J75" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K75" s="3" t="n">
-        <v>0</v>
+        <v>15243.01480263158</v>
       </c>
       <c r="L75" s="3" t="n">
         <v>28413</v>
@@ -7866,7 +7917,7 @@
       </c>
       <c r="N75" s="3" t="n"/>
       <c r="O75" s="3" t="n">
-        <v>28413</v>
+        <v>43656.01480263158</v>
       </c>
       <c r="P75" s="3" t="n">
         <v>48000</v>
@@ -7950,10 +8001,10 @@
         <v>9786</v>
       </c>
       <c r="J76" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K76" s="3" t="n">
-        <v>0</v>
+        <v>19219.55921052632</v>
       </c>
       <c r="L76" s="3" t="n">
         <v>51274</v>
@@ -7963,7 +8014,7 @@
       </c>
       <c r="N76" s="3" t="n"/>
       <c r="O76" s="3" t="n">
-        <v>91274</v>
+        <v>110493.5592105263</v>
       </c>
       <c r="P76" s="3" t="n">
         <v>96000</v>
@@ -8047,10 +8098,10 @@
         <v>36000</v>
       </c>
       <c r="J77" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K77" s="3" t="n">
-        <v>0</v>
+        <v>10195.44078947369</v>
       </c>
       <c r="L77" s="3" t="n">
         <v>5858</v>
@@ -8060,7 +8111,7 @@
       </c>
       <c r="N77" s="3" t="n"/>
       <c r="O77" s="3" t="n">
-        <v>7227.6</v>
+        <v>17423.04078947369</v>
       </c>
       <c r="P77" s="3" t="n">
         <v>0</v>
@@ -8141,10 +8192,10 @@
         <v>0</v>
       </c>
       <c r="J78" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K78" s="3" t="n">
-        <v>0</v>
+        <v>14331.515625</v>
       </c>
       <c r="L78" s="3" t="n">
         <v>8511</v>
@@ -8154,7 +8205,7 @@
       </c>
       <c r="N78" s="3" t="n"/>
       <c r="O78" s="3" t="n">
-        <v>13815.8</v>
+        <v>28147.315625</v>
       </c>
       <c r="P78" s="3" t="n">
         <v>45000</v>
@@ -8238,10 +8289,10 @@
         <v>12000</v>
       </c>
       <c r="J79" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K79" s="3" t="n">
-        <v>0</v>
+        <v>12611.58799342105</v>
       </c>
       <c r="L79" s="11" t="n">
         <v>0</v>
@@ -8251,7 +8302,7 @@
       </c>
       <c r="N79" s="3" t="n"/>
       <c r="O79" s="3" t="n">
-        <v>0</v>
+        <v>12611.58799342105</v>
       </c>
       <c r="P79" s="3" t="n">
         <v>0</v>
@@ -8272,11 +8323,12 @@
         <v/>
       </c>
       <c r="V79" s="3" t="n">
-        <v>0</v>
+        <v>11859</v>
       </c>
       <c r="W79" s="10" t="n"/>
-      <c r="X79" s="3" t="n">
-        <v>0</v>
+      <c r="X79" s="3">
+        <f>V79+W79</f>
+        <v/>
       </c>
       <c r="Y79" s="3">
         <f>U79-X79</f>
@@ -8286,7 +8338,9 @@
       <c r="AA79" s="10" t="n"/>
       <c r="AB79" s="3" t="n"/>
       <c r="AC79" s="3" t="n"/>
-      <c r="AD79" s="3" t="n"/>
+      <c r="AD79" s="3" t="n">
+        <v>11859</v>
+      </c>
       <c r="AE79" s="3">
         <f>T79+X79+AB79+AC79</f>
         <v/>
@@ -8432,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="J81" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K81" s="3" t="n">
-        <v>0</v>
+        <v>15779.6052631579</v>
       </c>
       <c r="L81" s="11" t="n">
         <v>0</v>
@@ -8445,7 +8499,7 @@
       </c>
       <c r="N81" s="3" t="n"/>
       <c r="O81" s="3" t="n">
-        <v>0</v>
+        <v>15779.6052631579</v>
       </c>
       <c r="P81" s="3" t="n">
         <v>24000</v>
@@ -8480,7 +8534,9 @@
       <c r="AA81" s="10" t="n"/>
       <c r="AB81" s="3" t="n"/>
       <c r="AC81" s="3" t="n"/>
-      <c r="AD81" s="3" t="n"/>
+      <c r="AD81" s="3" t="n">
+        <v>24000</v>
+      </c>
       <c r="AE81" s="3">
         <f>T81+X81+AB81+AC81</f>
         <v/>
@@ -8527,10 +8583,10 @@
         <v>24000</v>
       </c>
       <c r="J82" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K82" s="3" t="n">
-        <v>0</v>
+        <v>12154.01644736842</v>
       </c>
       <c r="L82" s="3" t="n">
         <v>56476</v>
@@ -8540,7 +8596,7 @@
       </c>
       <c r="N82" s="3" t="n"/>
       <c r="O82" s="3" t="n">
-        <v>56476</v>
+        <v>68630.01644736843</v>
       </c>
       <c r="P82" s="3" t="n">
         <v>55000</v>
@@ -8624,10 +8680,10 @@
         <v>22000</v>
       </c>
       <c r="J83" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K83" s="3" t="n">
-        <v>0</v>
+        <v>7833.881578947369</v>
       </c>
       <c r="L83" s="11" t="n">
         <v>0</v>
@@ -8637,7 +8693,7 @@
       </c>
       <c r="N83" s="3" t="n"/>
       <c r="O83" s="3" t="n">
-        <v>0</v>
+        <v>7833.881578947369</v>
       </c>
       <c r="P83" s="3" t="n">
         <v>0</v>
@@ -8672,11 +8728,10 @@
       <c r="AA83" s="10" t="n"/>
       <c r="AB83" s="3" t="n"/>
       <c r="AC83" s="3" t="n"/>
-      <c r="AD83" s="3" t="n"/>
-      <c r="AE83" s="3">
-        <f>T83+X83+AB83+AC83</f>
-        <v/>
-      </c>
+      <c r="AD83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="8" t="inlineStr">
@@ -8719,10 +8774,10 @@
         <v>9122</v>
       </c>
       <c r="J84" s="9" t="n">
-        <v>0.7944078947368421</v>
+        <v>0.7532894736842105</v>
       </c>
       <c r="K84" s="3" t="n">
-        <v>17347.48519736842</v>
+        <v>16449.5822368421</v>
       </c>
       <c r="L84" s="3" t="n">
         <v>28314</v>
@@ -8732,7 +8787,7 @@
       </c>
       <c r="N84" s="3" t="n"/>
       <c r="O84" s="3" t="n">
-        <v>55181.48519736843</v>
+        <v>54283.58223684211</v>
       </c>
       <c r="P84" s="3" t="n">
         <v>48000</v>
@@ -9014,10 +9069,10 @@
         <v>24000</v>
       </c>
       <c r="J87" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K87" s="3" t="n">
-        <v>0</v>
+        <v>10799.52138157895</v>
       </c>
       <c r="L87" s="3" t="n">
         <v>2741</v>
@@ -9027,7 +9082,7 @@
       </c>
       <c r="N87" s="3" t="n"/>
       <c r="O87" s="3" t="n">
-        <v>2741</v>
+        <v>13540.52138157895</v>
       </c>
       <c r="P87" s="3" t="n">
         <v>0</v>
@@ -9108,10 +9163,10 @@
         <v>20000</v>
       </c>
       <c r="J88" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K88" s="3" t="n">
-        <v>0</v>
+        <v>10411.18421052632</v>
       </c>
       <c r="L88" s="3" t="n">
         <v>599</v>
@@ -9121,7 +9176,7 @@
       </c>
       <c r="N88" s="3" t="n"/>
       <c r="O88" s="3" t="n">
-        <v>599</v>
+        <v>11010.18421052632</v>
       </c>
       <c r="P88" s="3" t="n">
         <v>0</v>
@@ -9496,10 +9551,10 @@
         <v>0</v>
       </c>
       <c r="J92" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K92" s="3" t="n">
-        <v>0</v>
+        <v>8907.809210526317</v>
       </c>
       <c r="L92" s="3" t="n">
         <v>39767</v>
@@ -9509,7 +9564,7 @@
       </c>
       <c r="N92" s="3" t="n"/>
       <c r="O92" s="3" t="n">
-        <v>50641.27074549761</v>
+        <v>59549.07995602393</v>
       </c>
       <c r="P92" s="3" t="n">
         <v>73000</v>
@@ -9693,10 +9748,10 @@
         <v>24000</v>
       </c>
       <c r="J94" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K94" s="3" t="n">
-        <v>0</v>
+        <v>8744.353618421053</v>
       </c>
       <c r="L94" s="3" t="n">
         <v>10202</v>
@@ -9706,7 +9761,7 @@
       </c>
       <c r="N94" s="3" t="n"/>
       <c r="O94" s="3" t="n">
-        <v>10202</v>
+        <v>18946.35361842105</v>
       </c>
       <c r="P94" s="3" t="n">
         <v>3000</v>
@@ -9790,10 +9845,10 @@
         <v>0</v>
       </c>
       <c r="J95" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K95" s="3" t="n">
-        <v>0</v>
+        <v>5788.526315789474</v>
       </c>
       <c r="L95" s="3" t="n">
         <v>13040</v>
@@ -9803,7 +9858,7 @@
       </c>
       <c r="N95" s="3" t="n"/>
       <c r="O95" s="3" t="n">
-        <v>15035.2</v>
+        <v>20823.72631578947</v>
       </c>
       <c r="P95" s="3" t="n">
         <v>44000</v>
@@ -9987,10 +10042,10 @@
         <v>24000</v>
       </c>
       <c r="J97" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K97" s="3" t="n">
-        <v>0</v>
+        <v>7929.678453947369</v>
       </c>
       <c r="L97" s="3" t="n">
         <v>7245</v>
@@ -10000,7 +10055,7 @@
       </c>
       <c r="N97" s="3" t="n"/>
       <c r="O97" s="3" t="n">
-        <v>9470.6</v>
+        <v>17400.27845394737</v>
       </c>
       <c r="P97" s="3" t="n">
         <v>23940</v>
@@ -10184,10 +10239,10 @@
         <v>17000</v>
       </c>
       <c r="J99" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K99" s="3" t="n">
-        <v>0</v>
+        <v>5236.949835526316</v>
       </c>
       <c r="L99" s="3" t="n">
         <v>2220</v>
@@ -10197,7 +10252,7 @@
       </c>
       <c r="N99" s="3" t="n"/>
       <c r="O99" s="3" t="n">
-        <v>2934.4</v>
+        <v>8171.349835526316</v>
       </c>
       <c r="P99" s="3" t="n">
         <v>0</v>
@@ -10372,10 +10427,10 @@
         <v>0</v>
       </c>
       <c r="J101" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K101" s="3" t="n">
-        <v>0</v>
+        <v>7057.221217105263</v>
       </c>
       <c r="L101" s="3" t="n">
         <v>49579</v>
@@ -10385,7 +10440,7 @@
       </c>
       <c r="N101" s="3" t="n"/>
       <c r="O101" s="3" t="n">
-        <v>58822.15790574563</v>
+        <v>65879.37912285089</v>
       </c>
       <c r="P101" s="3" t="n">
         <v>74660</v>
@@ -10566,10 +10621,10 @@
         <v>0</v>
       </c>
       <c r="J103" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K103" s="3" t="n">
-        <v>0</v>
+        <v>4387.329769736843</v>
       </c>
       <c r="L103" s="3" t="n">
         <v>20198</v>
@@ -10579,7 +10634,7 @@
       </c>
       <c r="N103" s="3" t="n"/>
       <c r="O103" s="3" t="n">
-        <v>22182.8</v>
+        <v>26570.12976973684</v>
       </c>
       <c r="P103" s="3" t="n">
         <v>24000</v>
@@ -10663,10 +10718,10 @@
         <v>0</v>
       </c>
       <c r="J104" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K104" s="3" t="n">
-        <v>0</v>
+        <v>5866.702302631579</v>
       </c>
       <c r="L104" s="3" t="n">
         <v>31426</v>
@@ -10676,7 +10731,7 @@
       </c>
       <c r="N104" s="3" t="n"/>
       <c r="O104" s="3" t="n">
-        <v>43117.2</v>
+        <v>48983.90230263158</v>
       </c>
       <c r="P104" s="3" t="n">
         <v>23720</v>
@@ -10707,12 +10762,17 @@
         <f>U104-X104</f>
         <v/>
       </c>
-      <c r="Z104" s="3" t="n"/>
+      <c r="Z104" s="3" t="n">
+        <v>24000</v>
+      </c>
       <c r="AA104" s="10" t="n"/>
-      <c r="AB104" s="3" t="n"/>
+      <c r="AB104" s="3">
+        <f>Z104+AA104</f>
+        <v/>
+      </c>
       <c r="AC104" s="3" t="n"/>
       <c r="AD104" s="3" t="n">
-        <v>23720</v>
+        <v>47720</v>
       </c>
       <c r="AE104" s="3">
         <f>T104+X104+AB104+AC104</f>
@@ -10958,10 +11018,10 @@
         <v>0</v>
       </c>
       <c r="J107" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K107" s="3" t="n">
-        <v>0</v>
+        <v>5434.638157894738</v>
       </c>
       <c r="L107" s="11" t="n">
         <v>0</v>
@@ -10971,7 +11031,7 @@
       </c>
       <c r="N107" s="3" t="n"/>
       <c r="O107" s="3" t="n">
-        <v>0</v>
+        <v>5434.638157894738</v>
       </c>
       <c r="P107" s="3" t="n">
         <v>10140</v>
@@ -11006,11 +11066,10 @@
       <c r="AA107" s="10" t="n"/>
       <c r="AB107" s="3" t="n"/>
       <c r="AC107" s="3" t="n"/>
-      <c r="AD107" s="3" t="n"/>
-      <c r="AE107" s="3">
-        <f>T107+X107+AB107+AC107</f>
-        <v/>
-      </c>
+      <c r="AD107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="3" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="8" t="inlineStr">
@@ -11153,10 +11212,10 @@
         <v>0</v>
       </c>
       <c r="J109" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K109" s="3" t="n">
-        <v>0</v>
+        <v>3560.855263157895</v>
       </c>
       <c r="L109" s="3" t="n">
         <v>5170</v>
@@ -11166,7 +11225,7 @@
       </c>
       <c r="N109" s="3" t="n"/>
       <c r="O109" s="3" t="n">
-        <v>5873.503929875143</v>
+        <v>9434.359193033039</v>
       </c>
       <c r="P109" s="3" t="n">
         <v>20000</v>
@@ -11247,10 +11306,10 @@
         <v>9412</v>
       </c>
       <c r="J110" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K110" s="3" t="n">
-        <v>0</v>
+        <v>6121.171875</v>
       </c>
       <c r="L110" s="11" t="n">
         <v>0</v>
@@ -11260,7 +11319,7 @@
       </c>
       <c r="N110" s="3" t="n"/>
       <c r="O110" s="3" t="n">
-        <v>0</v>
+        <v>6121.171875</v>
       </c>
       <c r="P110" s="3" t="n">
         <v>0</v>
@@ -11295,7 +11354,9 @@
       <c r="AA110" s="10" t="n"/>
       <c r="AB110" s="3" t="n"/>
       <c r="AC110" s="3" t="n"/>
-      <c r="AD110" s="3" t="n"/>
+      <c r="AD110" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AE110" s="3" t="n"/>
     </row>
     <row r="111">
@@ -11633,10 +11694,10 @@
         <v>0</v>
       </c>
       <c r="J114" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K114" s="3" t="n">
-        <v>0</v>
+        <v>4528.865131578948</v>
       </c>
       <c r="L114" s="3" t="n">
         <v>25958</v>
@@ -11646,7 +11707,7 @@
       </c>
       <c r="N114" s="3" t="n"/>
       <c r="O114" s="3" t="n">
-        <v>27636.74688</v>
+        <v>32165.61201157895</v>
       </c>
       <c r="P114" s="3" t="n">
         <v>68000</v>
@@ -12811,10 +12872,10 @@
         <v>7000</v>
       </c>
       <c r="J126" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K126" s="3" t="n">
-        <v>0</v>
+        <v>2293.063322368421</v>
       </c>
       <c r="L126" s="3" t="n">
         <v>8321</v>
@@ -12824,7 +12885,7 @@
       </c>
       <c r="N126" s="3" t="n"/>
       <c r="O126" s="3" t="n">
-        <v>9107.4</v>
+        <v>11400.46332236842</v>
       </c>
       <c r="P126" s="3" t="n">
         <v>7000</v>
@@ -13199,10 +13260,10 @@
         <v>0</v>
       </c>
       <c r="J130" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K130" s="3" t="n">
-        <v>0</v>
+        <v>1222.27302631579</v>
       </c>
       <c r="L130" s="3" t="n">
         <v>17652</v>
@@ -13212,7 +13273,7 @@
       </c>
       <c r="N130" s="3" t="n"/>
       <c r="O130" s="3" t="n">
-        <v>17652</v>
+        <v>18874.27302631579</v>
       </c>
       <c r="P130" s="3" t="n">
         <v>20000</v>
@@ -13392,10 +13453,10 @@
         <v>0</v>
       </c>
       <c r="J132" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K132" s="3" t="n">
-        <v>0</v>
+        <v>879.7450657894738</v>
       </c>
       <c r="L132" s="3" t="n">
         <v>8289</v>
@@ -13405,7 +13466,7 @@
       </c>
       <c r="N132" s="3" t="n"/>
       <c r="O132" s="3" t="n">
-        <v>8289</v>
+        <v>9168.745065789473</v>
       </c>
       <c r="P132" s="3" t="n">
         <v>10000</v>
@@ -13486,10 +13547,10 @@
         <v>0</v>
       </c>
       <c r="J133" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K133" s="3" t="n">
-        <v>0</v>
+        <v>874.0189144736843</v>
       </c>
       <c r="L133" s="11" t="n">
         <v>0</v>
@@ -13499,7 +13560,7 @@
       </c>
       <c r="N133" s="3" t="n"/>
       <c r="O133" s="3" t="n">
-        <v>0</v>
+        <v>874.0189144736843</v>
       </c>
       <c r="P133" s="3" t="n">
         <v>2000</v>
@@ -13534,7 +13595,9 @@
       <c r="AA133" s="10" t="n"/>
       <c r="AB133" s="3" t="n"/>
       <c r="AC133" s="3" t="n"/>
-      <c r="AD133" s="3" t="n"/>
+      <c r="AD133" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AE133" s="3" t="n"/>
     </row>
     <row r="134">
@@ -13969,10 +14032,10 @@
         <v>0</v>
       </c>
       <c r="J138" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K138" s="3" t="n">
-        <v>0</v>
+        <v>69.75493421052632</v>
       </c>
       <c r="L138" s="3" t="n">
         <v>11217</v>
@@ -13982,7 +14045,7 @@
       </c>
       <c r="N138" s="3" t="n"/>
       <c r="O138" s="3" t="n">
-        <v>11217</v>
+        <v>11286.75493421053</v>
       </c>
       <c r="P138" s="3" t="n">
         <v>11351</v>
@@ -14063,7 +14126,7 @@
         <v>240000</v>
       </c>
       <c r="J139" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K139" s="3" t="n">
         <v>0</v>
@@ -14160,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K140" s="3" t="n">
         <v>0</v>
@@ -14255,7 +14318,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K141" s="3" t="n">
         <v>0</v>
@@ -14350,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K142" s="3" t="n">
         <v>0</v>
@@ -14444,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K143" s="3" t="n">
         <v>0</v>
@@ -14538,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K144" s="3" t="n">
         <v>0</v>
@@ -14635,7 +14698,7 @@
         <v>24000</v>
       </c>
       <c r="J145" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K145" s="3" t="n">
         <v>0</v>
@@ -14732,7 +14795,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K146" s="3" t="n">
         <v>0</v>
@@ -14827,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K147" s="3" t="n">
         <v>0</v>
@@ -14921,7 +14984,7 @@
         <v>27405</v>
       </c>
       <c r="J148" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K148" s="3" t="n">
         <v>0</v>
@@ -15019,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K149" s="3" t="n">
         <v>0</v>
@@ -15116,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K150" s="3" t="n">
         <v>0</v>
@@ -15213,7 +15276,7 @@
         <v>48000</v>
       </c>
       <c r="J151" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K151" s="3" t="n">
         <v>0</v>
@@ -15311,7 +15374,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K152" s="3" t="n">
         <v>0</v>
@@ -15408,7 +15471,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K153" s="3" t="n">
         <v>0</v>
@@ -15510,7 +15573,7 @@
         <v>6795</v>
       </c>
       <c r="J154" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K154" s="3" t="n">
         <v>0</v>
@@ -15604,7 +15667,7 @@
         <v>1000</v>
       </c>
       <c r="J155" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K155" s="3" t="n">
         <v>0</v>
@@ -15698,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K156" s="3" t="n">
         <v>0</v>
@@ -15795,7 +15858,7 @@
         <v>6000</v>
       </c>
       <c r="J157" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K157" s="3" t="n">
         <v>0</v>
@@ -15892,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K158" s="3" t="n">
         <v>0</v>
@@ -15989,7 +16052,7 @@
         <v>5000</v>
       </c>
       <c r="J159" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K159" s="3" t="n">
         <v>0</v>
@@ -16086,7 +16149,7 @@
         <v>22000</v>
       </c>
       <c r="J160" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K160" s="3" t="n">
         <v>0</v>
@@ -16180,7 +16243,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K161" s="3" t="n">
         <v>0</v>
@@ -16277,7 +16340,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K162" s="3" t="n">
         <v>0</v>
@@ -16374,7 +16437,7 @@
         <v>22000</v>
       </c>
       <c r="J163" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K163" s="3" t="n">
         <v>0</v>
@@ -16468,7 +16531,7 @@
         <v>1194</v>
       </c>
       <c r="J164" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K164" s="3" t="n">
         <v>0</v>
@@ -16664,7 +16727,7 @@
         <v>5000</v>
       </c>
       <c r="J166" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K166" s="3" t="n">
         <v>0</v>
@@ -16762,7 +16825,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K167" s="3" t="n">
         <v>0</v>
@@ -16856,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K168" s="3" t="n">
         <v>0</v>
@@ -16958,7 +17021,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K169" s="3" t="n">
         <v>0</v>
@@ -17055,7 +17118,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K170" s="3" t="n">
         <v>0</v>
@@ -17152,7 +17215,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K171" s="3" t="n">
         <v>0</v>
@@ -17249,7 +17312,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K172" s="3" t="n">
         <v>0</v>
@@ -17346,7 +17409,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K173" s="3" t="n">
         <v>0</v>
@@ -17443,7 +17506,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K174" s="3" t="n">
         <v>0</v>
@@ -17540,7 +17603,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K175" s="3" t="n">
         <v>0</v>
@@ -17637,7 +17700,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K176" s="3" t="n">
         <v>0</v>
@@ -17739,7 +17802,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K177" s="3" t="n">
         <v>0</v>
@@ -17836,7 +17899,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K178" s="3" t="n">
         <v>0</v>
@@ -17933,7 +17996,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K179" s="3" t="n">
         <v>0</v>
@@ -18030,7 +18093,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K180" s="3" t="n">
         <v>0</v>
@@ -18221,7 +18284,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K182" s="3" t="n">
         <v>0</v>
@@ -18315,7 +18378,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K183" s="3" t="n">
         <v>0</v>
@@ -18409,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K184" s="3" t="n">
         <v>0</v>
@@ -18503,7 +18566,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K185" s="3" t="n">
         <v>0</v>
@@ -18597,7 +18660,7 @@
         <v>0</v>
       </c>
       <c r="J186" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K186" s="3" t="n">
         <v>0</v>
@@ -18691,7 +18754,7 @@
         <v>0</v>
       </c>
       <c r="J187" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K187" s="3" t="n">
         <v>0</v>
@@ -18785,7 +18848,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K188" s="3" t="n">
         <v>0</v>
@@ -18879,7 +18942,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K189" s="3" t="n">
         <v>0</v>
@@ -18973,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K190" s="3" t="n">
         <v>0</v>
@@ -19067,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K191" s="3" t="n">
         <v>0</v>
@@ -19161,7 +19224,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K192" s="3" t="n">
         <v>0</v>
@@ -19258,7 +19321,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K193" s="3" t="n">
         <v>0</v>
@@ -19352,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="J194" s="9" t="n">
-        <v>0</v>
+        <v>0.3560855263157895</v>
       </c>
       <c r="K194" s="3" t="n">
         <v>0</v>
@@ -19449,7 +19512,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K195" s="3" t="n">
         <v>0</v>
@@ -19546,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K196" s="3" t="n">
         <v>0</v>
@@ -19640,7 +19703,7 @@
         <v>0</v>
       </c>
       <c r="J197" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K197" s="3" t="n">
         <v>0</v>
@@ -19742,7 +19805,7 @@
         <v>0</v>
       </c>
       <c r="J198" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K198" s="3" t="n">
         <v>0</v>
@@ -19836,7 +19899,7 @@
         <v>0</v>
       </c>
       <c r="J199" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K199" s="3" t="n">
         <v>0</v>
@@ -20118,7 +20181,7 @@
         <v>0</v>
       </c>
       <c r="J202" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K202" s="3" t="n">
         <v>0</v>
@@ -20215,7 +20278,7 @@
         <v>0</v>
       </c>
       <c r="J203" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K203" s="3" t="n">
         <v>0</v>
@@ -20309,7 +20372,7 @@
         <v>0</v>
       </c>
       <c r="J204" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K204" s="3" t="n">
         <v>0</v>
@@ -20411,7 +20474,7 @@
         <v>0</v>
       </c>
       <c r="J205" s="9" t="n">
-        <v>0</v>
+        <v>0.657483552631579</v>
       </c>
       <c r="K205" s="3" t="n">
         <v>0</v>
@@ -20505,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="J206" s="9" t="n">
-        <v>0</v>
+        <v>0.5205592105263158</v>
       </c>
       <c r="K206" s="3" t="n">
         <v>0</v>
